--- a/FFD_bunken.xlsx
+++ b/FFD_bunken.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tsubasa Yamaguchi\Desktop\FFD_ronbun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tsubasa Yamaguchi\Desktop\FFDronbun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DBD3D9-4CB5-43E5-B858-F0207FE2EDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB01E68-C197-4E45-A181-4018665CE33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B57009A3-A253-4646-AC03-50C9AD3BF34B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="245">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -3038,6 +3038,105 @@
   </si>
   <si>
     <t>Aguilar-Melo, A. R., Calmé, S., Smith-Aguilar, S. E., &amp; Ramos-Fernandez, G.  https://doi.org/10.1007/s00265-018-2562-y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Social cliques in male northern muriquis Brachyteles hypoxanthus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokuda, M., Boubli, J. P., Izar, P., &amp; Strier, K. B. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Current Zoology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>northern muriqui</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・階層ベイズモデルによって、サブグループからの分散/サブグループへの合流時にどのような要因が影響しているかを検討。
+・サブグループサイズが小さいほど、メスはそのサブグループに合流する確率が上がる。
+・よりまとまりの良いサブグループから離れやすく、まとまりの悪いサブグループに合流しやすい
+・雄・雌は相手の性の割合が多いサブグループから分散しやすく、自分の性の割合が多いサブグループに合流しやすい
+・分散/合流の意思決定は他個体の影響を受けており、今後の研究はこれを考慮する必要がある</t>
+    <rPh sb="1" eb="3">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゴウリュウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ゴウリュウ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>ワリアイ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ゴウリュウ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ゴウリュウ</t>
+    </rPh>
+    <rPh sb="205" eb="209">
+      <t>イシケッテイ</t>
+    </rPh>
+    <rPh sb="210" eb="213">
+      <t>タコタイ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3500,13 +3599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C5B0CB-B451-43EC-9198-FD006B63F7E5}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4527,7 +4626,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="127.5" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4557,6 +4656,9 @@
       </c>
       <c r="J28" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>155</v>
@@ -4592,6 +4694,9 @@
       </c>
       <c r="J29" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>157</v>
@@ -5356,6 +5461,32 @@
       </c>
       <c r="J53" s="4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54" s="4">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>240</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2012</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/FFD_bunken.xlsx
+++ b/FFD_bunken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tsubasa Yamaguchi\Desktop\FFDronbun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB01E68-C197-4E45-A181-4018665CE33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAA7F84-7C31-4C6A-AEE2-2964AA50C1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B57009A3-A253-4646-AC03-50C9AD3BF34B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="269">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -361,10 +361,6 @@
   </si>
   <si>
     <t>Primates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itoh, N., &amp; Nishida, T. </t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve"> What Factors Affect the Size of Chimpanzee Parties in the Kalinzu Forest, Uganda? Examination of Fruit Abundance and Number of Estrous Females. </t>
@@ -1923,9 +1919,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Fission-fusion dynamics as a temporally and spatially flexible behavioral strategy in spider monkeys.</t>
-  </si>
-  <si>
     <t>Female Spider Monkeys (Ateles geoffroyi) Cope with Anthropogenic Disturbance Through Fission-Fusion Dynamics</t>
   </si>
   <si>
@@ -2390,9 +2383,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Fission–Fusion Dynamics in Southern Muriquis (Brachyteles arachnoides) in Continuous Brazilian Atlantic Forest. </t>
-  </si>
-  <si>
     <t>Southern muriquis</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2918,51 +2908,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・2つのサブグループが合流する際のデータを分析。
-・社会関係の3側面はすべて合流するか否かに影響。
-・同じ性別同士で合流する傾向があった。</t>
-    <rPh sb="11" eb="13">
-      <t>ゴウリュウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="26" eb="30">
-      <t>シャカイカンケイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ソクメン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ゴウリュウ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>イナ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ドウシ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ゴウリュウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ケイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Should I stay or should I go? How activity synchronization affects fission decisions.</t>
   </si>
   <si>
@@ -3030,17 +2975,10 @@
     <t>Animal Behaviour</t>
   </si>
   <si>
-    <t>Fission-fusion dynamics as a temporally and spatially flexible behavioral strategy in spider monkeys</t>
-  </si>
-  <si>
     <t xml:space="preserve">Palacios-Romo, T. M., Castellanos, F., &amp; Ramos-Fernandez, G. </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Aguilar-Melo, A. R., Calmé, S., Smith-Aguilar, S. E., &amp; Ramos-Fernandez, G.  https://doi.org/10.1007/s00265-018-2562-y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Social cliques in male northern muriquis Brachyteles hypoxanthus.</t>
   </si>
   <si>
@@ -3053,10 +2991,6 @@
   </si>
   <si>
     <t>northern muriqui</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3136,6 +3070,643 @@
     </rPh>
     <rPh sb="236" eb="238">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2つのサブグループが分裂する際のデータを分析。
+・社会関係の3側面はすべて分裂するか否かに影響。
+・同じ性別同士で分裂する傾向があった。</t>
+    <rPh sb="11" eb="13">
+      <t>ブンレツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>シャカイカンケイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソクメン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ブンレツ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>イナ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ブンレツ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ケイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserva Particular do Patrimônio Natural-Feliciano Miguel Abdala</t>
+  </si>
+  <si>
+    <t>・群れ全体の近接関係からSRIを算出し、ネットワークをモジュラりrひーが最大になるようにcliqueに分けた。</t>
+    <rPh sb="1" eb="2">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・オスは分散せず、オス同士は親密で平等的な関係を築いている
+・近接関係、親和的交渉、敵対的交渉の頻度を用いたネットワーク分析
+・近接ネットワークは5つのクラスターに分かれた。うち二つは明確にオスのクラスター
+・親和的交渉ネットワークでも1ダイアッドを除けば同じ2つのクラスターに分けられた。
+・敵対的交渉の72%は2つのクリーク間で起こり、その96%でMUグループの個体が被攻撃個体となった。
+</t>
+    <rPh sb="4" eb="6">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンミツ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ビョウドウテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キズ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>キンセツカンケイ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>シンワテキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウショウ</t>
+    </rPh>
+    <rPh sb="42" eb="47">
+      <t>テキタイテキコウショウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="105" eb="110">
+      <t>シンワテキコウショウ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="147" eb="152">
+      <t>テキタイテキコウショウ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>コタイ</t>
+    </rPh>
+    <rPh sb="186" eb="191">
+      <t>ヒコウゲキコタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fission–Fusion Dynamics in Southern Muriquis (Brachyteles arachnoides) in Continuous Brazilian Atlantic Forest. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Behavior patterns of southern bearded sakis ( Chiropotes satanas)in the fragmented landscape of eastern Brazilian Amazonia.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mitani, J. C., Watts, D. P., &amp; Amsler, S. J. (2010). Lethal intergroup aggression leads to territorial expansion in wild chimpanzees. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Current Biology: CB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(12), R507–R508.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Social and spatial aspects of male subgrouping in a community of wild chimpanzees. </t>
+  </si>
+  <si>
+    <t>Behaviour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mitani, J., &amp; Amsler, S.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・オスのパーティは2つのクラスターに分けられる。  
+・小さい方は平均的に見て年齢が若く、低順位で、交尾成功が少ない
+・両者の遊動域は重複し、敵対的交渉はクラスター内に比べて少ない</t>
+    <rPh sb="18" eb="19">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ヘイキンテキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>テイジュンイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>リョウシャ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>ユウドウイキ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="71" eb="76">
+      <t>テキタイテキコウショウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Northern muriquiと同様にオス同士はメス同士よりも集まる傾向がある。
+・メスはより同性だけの小さいパーティにいることが多い。  
+・野間ディックパーティでも平均36%の個体しか観察されない。
+・月ごとのnomadic partyの大きさの変動は小さい</t>
+    <rPh sb="18" eb="20">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケイコウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ドウセイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ノマ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>コタイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>カンサツ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・活動が同調していないほどサブグループの分裂が起きやすい。
+・移動中の方がサブグループは分裂しやすい。</t>
+    <rPh sb="1" eb="3">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウチョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブンレツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>イドウチュウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ブンレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・互いに30m以内にいる個体同士の集まりをサブグループとする
+・それまでいた個体が30分30m以内にいなかったとき別れたとする</t>
+    <rPh sb="38" eb="40">
+      <t>コタイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・同じサブグループにいるかどうかは、性別のほかに果実量の変動の影響を受ける。
+・サブグループ内の近接は果実量の変動を受けず、社会関係によってのみ影響されると考えられる。</t>
+    <rPh sb="1" eb="2">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カジツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>シャカイカンケイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fission-fusion dynamics as a temporally and spatially flexible behavioral strategy in spider monkeys.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Group fission among wild toque macaques as a consequence of female resource competition and environmental stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dittus, W. P. J. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Anima Behaviour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toque macaque</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・様々なサイズのサブグループに分かれた（1-23）
+・歓喜の方がサイズのバリエーションが大きかった
+・順位が高いほど大きなサブグループにいた</t>
+    <rPh sb="1" eb="3">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Atlantic forest in Minas Gerais</t>
+  </si>
+  <si>
+    <t>Towing the party line: territoriality, risky boundaries and male group size in spider monkey fission-fusion societies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallace, R. B. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>American Journal of Primatology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speder monkey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Noel Kempff Mercado National Park</t>
+  </si>
+  <si>
+    <t>・50mのチェインルール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・隣接群との境界ではサブグループ内のオスの数が多くなる</t>
+    <rPh sb="1" eb="4">
+      <t>リンセツグン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・サブグループの中心と思われる場所から50m以内にいて、活動を同期させたり同じ方向に移動している個体の集まり
+・5分間隔のスキャンで記録
+・2回連続で記録されなければ、その個体はサブグループから離れたとみなした</t>
+    <rPh sb="8" eb="10">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コタイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>フンカンカク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>カイレンゾク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>コタイ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・48%でサブグループサイズは1、少なくとも2個体以上確認されたポイントの平均は2.54だった。
+・2個体以上いるときは平均8mくらいと近くにいる
+・距離は社会交渉&lt;休息と採食&lt;移動
+・2頭以上いるときは両性を含む場合が80%で、両性グループの性比は1:1だった。
+・合流と分散はそれぞれ時間に1回の頻度で生じた</t>
+    <rPh sb="17" eb="18">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>コタイイジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>コタイイジョウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="78" eb="82">
+      <t>シャカイコウショウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>キュウソク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>サイショク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="94" eb="97">
+      <t>トウイジョウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>リョウセイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>リョウセイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>セイヒ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ゴウリュウ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>ショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3599,13 +4170,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C5B0CB-B451-43EC-9198-FD006B63F7E5}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3648,7 +4219,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -3660,7 +4231,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
@@ -3689,7 +4260,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>33</v>
@@ -3698,10 +4269,10 @@
         <v>13</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="229.5" x14ac:dyDescent="0.4">
@@ -3727,7 +4298,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>34</v>
@@ -3765,7 +4336,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>27</v>
@@ -3777,7 +4348,7 @@
         <v>24</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="127.5" x14ac:dyDescent="0.4">
@@ -3791,7 +4362,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5">
         <v>2002</v>
@@ -3803,7 +4374,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>31</v>
@@ -3812,10 +4383,10 @@
         <v>18</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="140.25" x14ac:dyDescent="0.4">
@@ -3829,7 +4400,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="5">
         <v>2002</v>
@@ -3841,10 +4412,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>18</v>
@@ -3853,50 +4424,45 @@
         <v>35</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:13" ht="63.75" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
+      <c r="D7" t="s">
+        <v>247</v>
       </c>
       <c r="E7" s="5">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>222</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -3904,20 +4470,20 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>41</v>
+      <c r="D8" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="5">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>37</v>
@@ -3926,15 +4492,15 @@
         <v>18</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="51" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -3942,37 +4508,37 @@
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>43</v>
+      <c r="D9" t="s">
+        <v>244</v>
       </c>
       <c r="E9" s="5">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="63.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -3981,36 +4547,36 @@
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="E10" s="5">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="102" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="63.75" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -4019,36 +4585,36 @@
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E11" s="5">
-        <v>2022</v>
+        <v>2003</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -4057,36 +4623,36 @@
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="5">
         <v>2022</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>109</v>
+      <c r="K12" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="89.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="9">
-        <v>12</v>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -4095,127 +4661,130 @@
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>90</v>
+      <c r="K13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
-        <v>13</v>
+    <row r="14" spans="1:13" ht="89.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="9">
+        <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E14" s="5">
-        <v>2008</v>
+        <v>2021</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>105</v>
+      <c r="K14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>66</v>
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E15" s="5">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>106</v>
+      <c r="L15" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E16" s="5">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>31</v>
@@ -4223,13 +4792,13 @@
       <c r="J16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
+      <c r="L16" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
@@ -4238,106 +4807,103 @@
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E17" s="5">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>113</v>
+      <c r="L17" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E18" s="5">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>101</v>
+      <c r="L18" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="9">
-        <v>18</v>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <v>17</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>94</v>
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E19" s="5">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>99</v>
-      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -4346,36 +4912,36 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="5">
-        <v>2013</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="4">
-        <v>20</v>
+      <c r="A21" s="9">
+        <v>19</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -4384,33 +4950,36 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E21" s="5">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>119</v>
+        <v>97</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -4419,36 +4988,33 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E22" s="5">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>125</v>
+      <c r="L22" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="127.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -4457,36 +5023,36 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E23" s="5">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="127.5" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -4495,33 +5061,36 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E24" s="5">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>154</v>
+        <v>225</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -4530,36 +5099,33 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E25" s="5">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -4568,22 +5134,22 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E26" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>18</v>
@@ -4592,10 +5158,13 @@
         <v>229</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
@@ -4603,33 +5172,34 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="E27" s="5">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="K27" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" ht="127.5" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
+    <row r="28" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="B28" s="4">
         <v>1</v>
       </c>
@@ -4637,36 +5207,36 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="E28" s="5">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>155</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="127.5" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -4675,36 +5245,36 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E29" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>243</v>
+      <c r="K29" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -4713,33 +5283,33 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E30" s="5">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
@@ -4748,33 +5318,36 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E31" s="5">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K31" s="6" t="s">
+        <v>252</v>
+      </c>
       <c r="L31" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -4783,33 +5356,33 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E32" s="5">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -4818,33 +5391,33 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E33" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>164</v>
+      <c r="L33" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
@@ -4853,33 +5426,33 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E34" s="5">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="6" t="s">
-        <v>165</v>
+      <c r="L34" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -4888,31 +5461,33 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="E35" s="5">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="6"/>
+      <c r="L35" s="6" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -4921,22 +5496,22 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E36" s="5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>18</v>
@@ -4944,9 +5519,6 @@
       <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
       <c r="B37" s="4">
         <v>1</v>
       </c>
@@ -4954,30 +5526,36 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="E37" s="5">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>169</v>
+        <v>263</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="7" t="s">
-        <v>217</v>
+      <c r="K37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -4986,27 +5564,36 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E38" s="5">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>168</v>
+      <c r="I38" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K38" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="39" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -5015,30 +5602,33 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E39" s="5">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K39" s="6" t="s">
+        <v>268</v>
+      </c>
       <c r="L39" s="6" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -5047,33 +5637,30 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E40" s="5">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="7" t="s">
-        <v>214</v>
+      <c r="L40" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -5082,30 +5669,33 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E41" s="5">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="6" t="s">
-        <v>218</v>
+      <c r="L41" s="7" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
@@ -5114,30 +5704,30 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E42" s="5">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -5146,30 +5736,30 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E43" s="5">
-        <v>1981</v>
+        <v>2012</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="7" t="s">
-        <v>219</v>
+      <c r="L43" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
@@ -5178,30 +5768,30 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E44" s="5">
-        <v>2012</v>
+        <v>1981</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="6" t="s">
-        <v>220</v>
+      <c r="L44" s="7" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -5210,27 +5800,36 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E45" s="5">
-        <v>1995</v>
+        <v>2012</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K45" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>217</v>
+      </c>
     </row>
-    <row r="46" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
@@ -5239,30 +5838,27 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E46" s="5">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="6" t="s">
-        <v>213</v>
-      </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4">
         <v>1</v>
@@ -5271,27 +5867,30 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E47" s="5">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
@@ -5300,19 +5899,19 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E48" s="5">
-        <v>1990</v>
+        <v>2012</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>18</v>
@@ -5320,7 +5919,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -5329,19 +5928,19 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="E49" s="5">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>18</v>
@@ -5349,7 +5948,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -5358,19 +5957,19 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="E50" s="5">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>18</v>
@@ -5378,7 +5977,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4">
         <v>1</v>
@@ -5387,16 +5986,19 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E51" s="5">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>208</v>
+        <v>40</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>18</v>
@@ -5404,7 +6006,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
@@ -5413,30 +6015,24 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E52" s="5">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="4">
         <v>1</v>
@@ -5445,27 +6041,30 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E53" s="5">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
@@ -5474,19 +6073,80 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2013</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="140.25" x14ac:dyDescent="0.4">
+      <c r="A55" s="4">
+        <v>51</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2012</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E54" s="5">
-        <v>2012</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>242</v>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>255</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1988</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/FFD_bunken.xlsx
+++ b/FFD_bunken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tsubasa Yamaguchi\Desktop\FFDronbun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAA7F84-7C31-4C6A-AEE2-2964AA50C1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D53C5C-85B1-4848-B59B-DFBE5A139AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B57009A3-A253-4646-AC03-50C9AD3BF34B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="309">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2406,9 +2406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>How Many for Lunch Today? Seasonal Fission-Fusion Dynamics as a Feeding Strategy in Wild Red-Capped Mangabeys (Cercocebus torquatus).</t>
-  </si>
-  <si>
     <t>Folia Primatologica</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3494,9 +3491,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> Group fission among wild toque macaques as a consequence of female resource competition and environmental stress</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dittus, W. P. J. </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3553,10 +3547,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Speder monkey</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Noel Kempff Mercado National Park</t>
   </si>
   <si>
@@ -3631,11 +3621,238 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Seasonal variation in association patterns of wild spider monkeys (Ateles belzebuth belzebuth) at La Macarena, Colombia. Primates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shimooka, Y. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>La Macarena</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・(1)近隣の樹木で休息または食事をしている個体、または(2)同じ方向に移動し、密接な接触を保っている個体
+・10分以内に同じ樹木に入ったり、樹冠を通過したりした個体の集合をパーティとみなした</t>
+    <rPh sb="61" eb="62">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジュカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・サブグループサイズは、果実が豊富な時期に最も大きくなる
+・オスが属するサブグループサイズはどの季節も安定していたが、メスは果実量に影響を受けていた。
+・アカンボウや小さなコドモがいるメスは、発情メスと比べて他の個体と一緒にいることが多かった。</t>
+    <rPh sb="12" eb="14">
+      <t>カジツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウフ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キセツ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>カジツリョウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ハツジョウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ecology and sociality in a multilevel society: Ecological determinants of spatial cohesion in hamadryas baboons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schreier, A. L., &amp; Swedell, L. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>American Journal of Physical Anthropology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gelada baboon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Filoha</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mangevo bushcamp in Ranomafana National Park, Madagascar (RNP)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rimbach, R., Link, A., Montes-Rojas, A., Di Fiore, A., Heistermann, M., &amp; Heymann, E. W. (2014). Behavioral and physiological responses to fruit availability of spider monkeys ranging in a small forest fragment. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>American Journal of Primatology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(11), 1049–1061.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Behavioral and physiological responses to fruit availability of spider monkeys ranging in a small forest fragment.</t>
+  </si>
+  <si>
+    <t>Hacienda San Juan del Carare</t>
+  </si>
+  <si>
+    <r>
+      <t>・果実量が</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">多いときほどサブグループサイズは小さく、ストレスレベルも高くなった。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・生息地が分断していることが原因？小さい森では食物が少ないとそもそも分かれて採食できるほどのパッチがいくつもない</t>
+    </r>
+    <rPh sb="1" eb="4">
+      <t>カジツリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>セイソクチ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ブンダン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ショクモツ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>サイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>・48%でサブグループサイズは1、少なくとも2個体以上確認されたポイントの平均は2.54だった。
 ・2個体以上いるときは平均8mくらいと近くにいる
 ・距離は社会交渉&lt;休息と採食&lt;移動
 ・2頭以上いるときは両性を含む場合が80%で、両性グループの性比は1:1だった。
-・合流と分散はそれぞれ時間に1回の頻度で生じた</t>
+・合流と分散はそれぞれ時間に1回の頻度で生じた
+・メスが発情しているとき、果実量が豊富なときにサブグループサイズが有意に大きくなった
+・サブグループ内の凝集性は授乳中と果実量が多いとき、休息や社会交渉時に高くなった。一方、サブグループサイズが大きく、両性が含まれると凝集性は低く。
+・他種と比べてもサブグループサイズは小さく、単独で過ごす時間が長い
+・これまでは、捕食圧が低いことが離合集散性が高くなる前提として考えられていたが、捕食圧がそこそこある襟巻キツネザルでも離合集散性が進化しうることを示した。ただし、襟巻キツネザルの捕食圧はそこまで高くない可能性もある。
+・メスが中心であるという点でチンパンジーやクモザルとは異なる
+・採食競合を避けるためという点では先行研究と同じ</t>
     <rPh sb="17" eb="18">
       <t>スク</t>
     </rPh>
@@ -3708,6 +3925,727 @@
     <rPh sb="153" eb="154">
       <t>ショウ</t>
     </rPh>
+    <rPh sb="161" eb="163">
+      <t>ハツジョウ</t>
+    </rPh>
+    <rPh sb="170" eb="173">
+      <t>カジツリョウ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ホウフ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ユウイ</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="209" eb="212">
+      <t>ギョウシュウセイ</t>
+    </rPh>
+    <rPh sb="213" eb="216">
+      <t>ジュニュウチュウ</t>
+    </rPh>
+    <rPh sb="217" eb="220">
+      <t>カジツリョウ</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>キュウソク</t>
+    </rPh>
+    <rPh sb="229" eb="234">
+      <t>シャカイコウショウジ</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="254" eb="255">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="258" eb="260">
+      <t>リョウセイ</t>
+    </rPh>
+    <rPh sb="261" eb="262">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="266" eb="269">
+      <t>ギョウシュウセイ</t>
+    </rPh>
+    <rPh sb="270" eb="271">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="292" eb="293">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="296" eb="298">
+      <t>タンドク</t>
+    </rPh>
+    <rPh sb="299" eb="300">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="315" eb="318">
+      <t>ホショクアツ</t>
+    </rPh>
+    <rPh sb="319" eb="320">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="324" eb="329">
+      <t>リゴウシュウサンセイ</t>
+    </rPh>
+    <rPh sb="330" eb="331">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="339" eb="340">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="348" eb="351">
+      <t>ホショクアツ</t>
+    </rPh>
+    <rPh sb="358" eb="360">
+      <t>エリマキ</t>
+    </rPh>
+    <rPh sb="367" eb="372">
+      <t>リゴウシュウサンセイ</t>
+    </rPh>
+    <rPh sb="389" eb="391">
+      <t>エリマキ</t>
+    </rPh>
+    <rPh sb="397" eb="400">
+      <t>ホショクアツ</t>
+    </rPh>
+    <rPh sb="405" eb="406">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="409" eb="412">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="421" eb="423">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="429" eb="430">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="444" eb="445">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="449" eb="453">
+      <t>サイショクキョウゴウ</t>
+    </rPh>
+    <rPh sb="454" eb="455">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="462" eb="463">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="465" eb="469">
+      <t>センコウケンキュウ</t>
+    </rPh>
+    <rPh sb="470" eb="471">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・２つのサイトで果実量、アカンボウの共同養育、捕食圧がサブグループサイズに影響するかを検討
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>果実量が少ないとき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にサブグループサイズが大きくなった
+➡ そもそも食物が少ないことが原因？少ないときは希少なパッチに集まってあまり動かない？
+・アカンボウがいる方がサブグループサイズは大きい
+➡ 共同養育が乳児死亡率を下げるから？
+・花の量は二つのサイトでサブグループサイズに反対の影響を与えた。これは、サイトによってそもそもの分布が異なるからだろう
+・その時のパッチサイズや樹木の大きさが大きいほど、サブグループサイズは大きい
+・捕食圧は有意に影響せず</t>
+    </r>
+    <rPh sb="8" eb="11">
+      <t>カジツリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>キョウドウヨウイク</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ホショクアツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>カジツリョウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ショクモツ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キショウ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="145" eb="149">
+      <t>キョウドウヨウイク</t>
+    </rPh>
+    <rPh sb="150" eb="155">
+      <t>ニュウジシボウリツ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ハンタイ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>ジュモク</t>
+    </rPh>
+    <rPh sb="238" eb="239">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="263" eb="266">
+      <t>ホショクアツ</t>
+    </rPh>
+    <rPh sb="267" eb="269">
+      <t>ユウイ</t>
+    </rPh>
+    <rPh sb="270" eb="272">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>How Many for Lunch Today? Seasonal Fission-Fusion Dynamics as a Feeding Strategy in Wild Red-Capped Mangabeys (Cercocebus torquatus).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ometepe Biological Research Station</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最初に発見したときにいた全個体
+・メンバーが異なれば、一日の中で複数のパーティを観察したときはそれぞれ別のものとみなす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・サブグループのサイズに関わらず両性グループが一番多く、オスの数の方が多い
+・サブグループサイズと活動時間割合に関連無し
+・食物量や分布とサブグループサイズは関連なさそう 
+➡より社会的な要因の影響を受けている
+・メスはよく一緒にいるオスが数頭ずついるが、特定のメスとよく一緒にいるということはほとんどない。オスはよく一緒にいる動静がいる。  </t>
+    <rPh sb="12" eb="13">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リョウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>イチバンオオ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="49" eb="55">
+      <t>カツドウジカンワリアイ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>カンレンナシ</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>ショクモツリョウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>シャカイテキ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>スウトウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ドウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinzey, W. G., &amp; Cunningham, E. P. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新世界サルの離合集散に関するレビューワーク</t>
+    <rPh sb="0" eb="3">
+      <t>シンセカイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>リゴウシュウサン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lago Preto Conservation Concession</t>
+  </si>
+  <si>
+    <t>・1~150までの大きさのサブグループが見つかった
+・一日中小さなサブグループに分かれていることもあったが、多くは日中に離合集散を繰り返し、一日の終わりに大きな集団を作った
+・オスはオスと、メスはメスと一緒にいることが多い
+・メスの10m以内にオスがいることは少ない（22%）。特定のオスだけと一緒にいるわけではなかった
+➡ OMUを作っているわけではなさそう。副友軍といえそう。
+・ウアカリの社会は10頭くらいの安定した集団が離合集散してくっついたり離れたりしていると考えられる
+・オスグループが観察される。オスも分散しているのではないか。</t>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="27" eb="41">
+      <t>イチニチジュウチイサナサブグループニワ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニッチュウ</t>
+    </rPh>
+    <rPh sb="60" eb="64">
+      <t>リゴウシュウサン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>シュウダン</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タケノコが少なくなると複数のサブグループに分裂するようだ。特に、出産期の終わりで栄養的な要求が高い時期に分派が起こりやすかった。</t>
+    <rPh sb="6" eb="7">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ブンレツ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>シュッサンキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>エイヨウテキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ブンパ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４か所のレビュー</t>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・食物が少ないrocky mountainでは離合集散が頻繁に起こる
+➡ 限られた食物をうまく利用するため？</t>
+    <rPh sb="1" eb="3">
+      <t>ショクモツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>リゴウシュウサン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒンパン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショクモツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Group fission among wild toque macaques as a consequence of female resource competition and environmental stress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comparative feeding ecology of the Uakari and Bearded Saki, Cacajao and Chiropotes.</t>
+  </si>
+  <si>
+    <t>Variability in platyrrhine social organization.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayres, J. M. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Journal of Human Evolution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・3種類の方法で群れのまとまりを評価
+① GPSで群れの広がりを評価。グループの真ん中と両端と思われるポイントを記録。
+② 1日の最初に確認した集団サイズ
+③ 5分ごとのスキャンで記録した視界内の個体数
+・Groupの定義としては、1.5kmのchain ruleを採用</t>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="40" eb="58">
+      <t>マンナカトリョウハジトオモワレルポイントヲキロク</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>シュウダン</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="94" eb="97">
+      <t>シカイナイ</t>
+    </rPh>
+    <rPh sb="98" eb="101">
+      <t>コタイスウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・群れの広がりはそのときどきのパッチの質とは関連がなかった。
+・一方で、一日の集団サイズやそのときどきの視界内の個体数は、その日の平均的なパッチの質やその月の果実量などとは相関していた。
+・そのときどきのパッチの質というよりは、食物の質が悪い月にはより分派するというようなより長期的な傾向によって戦略を決めている？
+・採食競合を避けるための戦略だろう。</t>
+    <rPh sb="1" eb="2">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュウダン</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>シカイナイ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>コタイスウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>カジツリョウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ショクモツ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ブンパ</t>
+    </rPh>
+    <rPh sb="138" eb="141">
+      <t>チョウキテキ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ケイコウ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="159" eb="163">
+      <t>サイショクキョウゴウ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>センリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ecological and social determinants of group cohesiveness and within-group spatial position in wild Assamese macaques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heesen, M., Macdonald, S., Ostner, J., &amp; Schülke, O. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ethology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assame macaque</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cohesion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・採食中に群れの広がりは最も大きくなり、近接個体も少ない</t>
+    <rPh sb="1" eb="4">
+      <t>サイショクチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>キンセツコタイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Black capuchin monkeys dynamically adjust group spread throughout the day</t>
+  </si>
+  <si>
+    <t>Luccas, V., &amp; Izar, P.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>black capuchin monkey</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3786,18 +4724,12 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3825,7 +4757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3851,9 +4783,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4170,13 +5099,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C5B0CB-B451-43EC-9198-FD006B63F7E5}">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomRight" activeCell="J62" sqref="J62:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4190,7 +5119,7 @@
     <col min="7" max="8" width="18.25" style="4" customWidth="1"/>
     <col min="9" max="9" width="25.75" style="4" customWidth="1"/>
     <col min="10" max="10" width="24.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="42.375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="51" style="7" customWidth="1"/>
     <col min="12" max="12" width="39.75" style="7" customWidth="1"/>
     <col min="13" max="13" width="16.375" style="4" customWidth="1"/>
     <col min="14" max="16384" width="9" style="4"/>
@@ -4314,7 +5243,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="63.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="9">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4">
@@ -4351,8 +5280,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="127.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="9">
+    <row r="5" spans="1:13" ht="102" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4">
@@ -4389,7 +5318,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="140.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="114.75" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4427,7 +5356,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="63.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
@@ -4435,16 +5367,16 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7" s="5">
         <v>2003</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>48</v>
@@ -4456,13 +5388,15 @@
         <v>18</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="L7" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -4495,12 +5429,12 @@
         <v>75</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="51" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -4509,7 +5443,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E9" s="5">
         <v>2007</v>
@@ -4538,7 +5472,7 @@
     </row>
     <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -4576,7 +5510,7 @@
     </row>
     <row r="11" spans="1:13" ht="63.75" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -4614,7 +5548,7 @@
     </row>
     <row r="12" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -4652,7 +5586,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -4689,8 +5623,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="89.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="9">
-        <v>12</v>
+      <c r="A14" s="4">
+        <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -4728,7 +5662,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -4763,7 +5697,7 @@
     </row>
     <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -4798,7 +5732,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
@@ -4833,7 +5767,7 @@
     </row>
     <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -4868,7 +5802,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -4902,8 +5836,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="9">
-        <v>18</v>
+      <c r="A20" s="4">
+        <v>19</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -4940,8 +5874,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="9">
-        <v>19</v>
+      <c r="A21" s="4">
+        <v>20</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -4979,7 +5913,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -5014,7 +5948,7 @@
     </row>
     <row r="23" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -5082,7 +6016,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>151</v>
@@ -5155,7 +6089,7 @@
         <v>18</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>156</v>
@@ -5193,13 +6127,16 @@
         <v>18</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
       <c r="B28" s="4">
         <v>1</v>
       </c>
@@ -5207,16 +6144,16 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E28" s="5">
         <v>2022</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>125</v>
@@ -5228,15 +6165,15 @@
         <v>18</v>
       </c>
       <c r="K28" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="127.5" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -5266,7 +6203,7 @@
         <v>18</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>153</v>
@@ -5274,7 +6211,7 @@
     </row>
     <row r="30" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -5309,7 +6246,7 @@
     </row>
     <row r="31" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
@@ -5339,7 +6276,7 @@
         <v>18</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>158</v>
@@ -5347,7 +6284,7 @@
     </row>
     <row r="32" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -5382,7 +6319,7 @@
     </row>
     <row r="33" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -5397,7 +6334,7 @@
         <v>2018</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>16</v>
@@ -5417,7 +6354,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
@@ -5452,7 +6389,7 @@
     </row>
     <row r="35" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -5487,7 +6424,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -5496,16 +6433,16 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E36" s="5">
         <v>2019</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>125</v>
@@ -5519,6 +6456,9 @@
       <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
       <c r="B37" s="4">
         <v>1</v>
       </c>
@@ -5526,36 +6466,36 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E37" s="5">
         <v>2008</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="H37" s="4" t="s">
-        <v>263</v>
+        <v>125</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -5564,36 +6504,36 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="E38" s="5">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>214</v>
+        <v>269</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -5602,33 +6542,34 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="E39" s="5">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>142</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>166</v>
+        <v>125</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>267</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="51" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -5637,30 +6578,36 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E40" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="K40" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -5669,33 +6616,36 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E41" s="5">
         <v>2016</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>211</v>
+      <c r="K41" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
@@ -5704,30 +6654,36 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E42" s="5">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>142</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K42" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="L42" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="153" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -5736,30 +6692,36 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E43" s="5">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>215</v>
+      <c r="K43" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="127.5" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
@@ -5768,30 +6730,36 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E44" s="5">
-        <v>1981</v>
+        <v>2009</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>216</v>
+      <c r="K44" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -5800,36 +6768,34 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E45" s="5">
         <v>2012</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="6" t="s">
-        <v>249</v>
-      </c>
+      <c r="K45" s="6"/>
       <c r="L45" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
@@ -5838,27 +6804,30 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E46" s="5">
-        <v>1995</v>
+        <v>1981</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="L46" s="7" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="47" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4">
         <v>1</v>
@@ -5867,30 +6836,36 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E47" s="5">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K47" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="L47" s="6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
@@ -5899,27 +6874,27 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E48" s="5">
-        <v>2012</v>
+        <v>1995</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -5928,27 +6903,30 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E49" s="5">
-        <v>1990</v>
+        <v>2016</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -5957,27 +6935,30 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="E50" s="5">
-        <v>1989</v>
+        <v>2012</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K50" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4">
         <v>1</v>
@@ -5986,27 +6967,33 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E51" s="5">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
@@ -6015,16 +7002,19 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E52" s="5">
-        <v>2010</v>
+        <v>1989</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>205</v>
+        <v>22</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>18</v>
@@ -6032,7 +7022,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4">
         <v>1</v>
@@ -6041,30 +7031,27 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E53" s="5">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
@@ -6073,27 +7060,24 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E54" s="5">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="140.25" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
@@ -6102,31 +7086,31 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="E55" s="5">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>241</v>
+        <v>208</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
       <c r="B56" s="4">
         <v>1</v>
       </c>
@@ -6134,19 +7118,229 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2013</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="140.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" s="5">
+        <v>2012</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>253</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1988</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E56" s="5">
-        <v>1988</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>257</v>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>271</v>
+      </c>
+      <c r="E59" s="5">
+        <v>2012</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>286</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1994</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>296</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1989</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62" s="5">
+        <v>2015</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" s="5">
+        <v>2021</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/FFD_bunken.xlsx
+++ b/FFD_bunken.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tsubasa Yamaguchi\Desktop\FFDronbun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D53C5C-85B1-4848-B59B-DFBE5A139AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3151378A-719F-4CA6-8EC8-6354DE939587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B57009A3-A253-4646-AC03-50C9AD3BF34B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B57009A3-A253-4646-AC03-50C9AD3BF34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="311">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1263,88 +1263,6 @@
     </rPh>
     <rPh sb="46" eb="47">
       <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・低順位オスが他オスからの攻撃を避けるために大きなパーティを避けるのかを検討
-・低順位オスの方が単独で過ごすことが多いが、最大膨張メスがいると単独でいることが少なくなる
-・最大膨張メスがいないときは高中順位のオスの方が低ジュにオスより大きなパーティに参加するが、最大膨張メスがいるときは変わらず
-・低順位オスは大きなパーティにいるほど攻撃を受けやすい</t>
-    <rPh sb="1" eb="4">
-      <t>テイジュンイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="30" eb="38">
-      <t>サケルノカヲケントウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>テイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ジュンイ</t>
-    </rPh>
-    <rPh sb="61" eb="65">
-      <t>サイダイボウチョウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>タンドク</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="86" eb="90">
-      <t>サイダイボウチョウ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ジュンイ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>テイ</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="131" eb="135">
-      <t>サイダイボウチョウ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="149" eb="152">
-      <t>テイジュンイ</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>ウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1919,9 +1837,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Female Spider Monkeys (Ateles geoffroyi) Cope with Anthropogenic Disturbance Through Fission-Fusion Dynamics</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rodrigues, M. A. </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3144,149 +3059,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">・オスは分散せず、オス同士は親密で平等的な関係を築いている
-・近接関係、親和的交渉、敵対的交渉の頻度を用いたネットワーク分析
-・近接ネットワークは5つのクラスターに分かれた。うち二つは明確にオスのクラスター
-・親和的交渉ネットワークでも1ダイアッドを除けば同じ2つのクラスターに分けられた。
-・敵対的交渉の72%は2つのクリーク間で起こり、その96%でMUグループの個体が被攻撃個体となった。
-</t>
-    <rPh sb="4" eb="6">
-      <t>ブンサン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ドウシ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シンミツ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ビョウドウテキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>キズ</t>
-    </rPh>
-    <rPh sb="31" eb="35">
-      <t>キンセツカンケイ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>シンワテキ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>コウショウ</t>
-    </rPh>
-    <rPh sb="42" eb="47">
-      <t>テキタイテキコウショウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ヒンド</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>キンセツ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>メイカク</t>
-    </rPh>
-    <rPh sb="105" eb="110">
-      <t>シンワテキコウショウ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="147" eb="152">
-      <t>テキタイテキコウショウ</t>
-    </rPh>
-    <rPh sb="164" eb="165">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="166" eb="167">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="183" eb="185">
-      <t>コタイ</t>
-    </rPh>
-    <rPh sb="186" eb="191">
-      <t>ヒコウゲキコタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Fission–Fusion Dynamics in Southern Muriquis (Brachyteles arachnoides) in Continuous Brazilian Atlantic Forest. </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Behavior patterns of southern bearded sakis ( Chiropotes satanas)in the fragmented landscape of eastern Brazilian Amazonia.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mitani, J. C., Watts, D. P., &amp; Amsler, S. J. (2010). Lethal intergroup aggression leads to territorial expansion in wild chimpanzees. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Current Biology: CB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(12), R507–R508.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve"> Social and spatial aspects of male subgrouping in a community of wild chimpanzees. </t>
@@ -3500,36 +3277,6 @@
   </si>
   <si>
     <t>toque macaque</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・様々なサイズのサブグループに分かれた（1-23）
-・歓喜の方がサイズのバリエーションが大きかった
-・順位が高いほど大きなサブグループにいた</t>
-    <rPh sb="1" eb="3">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カンキ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ジュンイ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>オオ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4306,55 +4053,6 @@
     <t>Lago Preto Conservation Concession</t>
   </si>
   <si>
-    <t>・1~150までの大きさのサブグループが見つかった
-・一日中小さなサブグループに分かれていることもあったが、多くは日中に離合集散を繰り返し、一日の終わりに大きな集団を作った
-・オスはオスと、メスはメスと一緒にいることが多い
-・メスの10m以内にオスがいることは少ない（22%）。特定のオスだけと一緒にいるわけではなかった
-➡ OMUを作っているわけではなさそう。副友軍といえそう。
-・ウアカリの社会は10頭くらいの安定した集団が離合集散してくっついたり離れたりしていると考えられる
-・オスグループが観察される。オスも分散しているのではないか。</t>
-    <rPh sb="9" eb="10">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="27" eb="41">
-      <t>イチニチジュウチイサナサブグループニワ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ニッチュウ</t>
-    </rPh>
-    <rPh sb="60" eb="64">
-      <t>リゴウシュウサン</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>イチニチ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>シュウダン</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・タケノコが少なくなると複数のサブグループに分裂するようだ。特に、出産期の終わりで栄養的な要求が高い時期に分派が起こりやすかった。</t>
     <rPh sb="6" eb="7">
       <t>スク</t>
@@ -4613,7 +4311,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・採食中に群れの広がりは最も大きくなり、近接個体も少ない</t>
+    <t>Black capuchin monkeys dynamically adjust group spread throughout the day</t>
+  </si>
+  <si>
+    <t>Luccas, V., &amp; Izar, P.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>black capuchin monkey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・採食中に群れの広がりは最も大きくなり、近接個体も少ない
+・高順位個体の方が中心部にいる</t>
     <rPh sb="1" eb="4">
       <t>サイショクチュウ</t>
     </rPh>
@@ -4635,17 +4345,341 @@
     <rPh sb="25" eb="26">
       <t>スク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Black capuchin monkeys dynamically adjust group spread throughout the day</t>
-  </si>
-  <si>
-    <t>Luccas, V., &amp; Izar, P.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>black capuchin monkey</t>
+    <rPh sb="30" eb="35">
+      <t>コウジュンイコタイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>チュウシンブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・様々なサイズのサブグループに分かれた（1-23）
+・乾季の方がサイズのバリエーションが大きかった
+・順位が高いほど大きなサブグループにいた</t>
+    <rPh sb="1" eb="3">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Itoh, N., &amp; Nishida, T. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・低順位オスが他オスからの攻撃を避けるために大きなパーティを避けるのかを検討
+・低順位オスの方が単独で過ごすことが多いが、最大膨張メスがいると単独でいることが少なくなる
+・最大膨張メスがいないときは高中順位のオスの方が低順位オスより大きなパーティに参加するが、最大膨張メスがいるときは変わらず
+・低順位オスは大きなパーティにいるほど攻撃を受けやすい</t>
+    <rPh sb="1" eb="4">
+      <t>テイジュンイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="30" eb="38">
+      <t>サケルノカヲケントウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="61" eb="65">
+      <t>サイダイボウチョウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>タンドク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="86" eb="90">
+      <t>サイダイボウチョウ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>テイジュンイ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="130" eb="134">
+      <t>サイダイボウチョウ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="148" eb="151">
+      <t>テイジュンイ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・離合集散が頻繁に起きており、季節ごとにサイズに違いが見られた。
+・ただし、一日の中での変化は少なかったようだ。
+・季節によるパーティサイズの変動は果実量を反映していると思われる。 </t>
+    <rPh sb="1" eb="5">
+      <t>リゴウシュウサン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒンパン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キセツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="38" eb="48">
+      <t>イチニチノナカデノヘンカハスク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キセツ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t>カジツリョウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1~150までの大きさのサブグループが見つかった
+・一日中小さなサブグループに分かれていることもあったが、多くは日中に離合集散を繰り返し、一日の終わりに大きな集団を作った
+・オスはオスと、メスはメスと一緒にいることが多い
+・メスの10m以内にオスがいることは少ない（22%）。特定のオスだけと一緒にいるわけではなかった
+➡ OMUを作っているわけではなさそう。複雄群といえそう。
+・ウアカリの社会は10頭くらいの安定した集団が離合集散してくっついたり離れたりしていると考えられる
+・オスグループが観察される。オスも分散しているのではないか。</t>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="27" eb="41">
+      <t>イチニチジュウチイサナサブグループニワ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニッチュウ</t>
+    </rPh>
+    <rPh sb="60" eb="64">
+      <t>リゴウシュウサン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>シュウダン</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>フクユウ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>グン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・オスは分散せず、オス同士は親密で平等的な関係を築いている
+・近接関係、親和的交渉、敵対的交渉の頻度を用いたネットワーク分析
+・近接ネットワークは5つのクラスターに分かれた。うち二つは明確にオスのクラスター
+・親和的交渉ネットワークでも1ダイアッドを除けば同じ2つのクラスターに分けられた。
+・敵対的交渉の72%は2つのクリーク間で起こり、その96%でMUグループの個体が被攻撃個体となった。</t>
+    <rPh sb="4" eb="6">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンミツ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ビョウドウテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キズ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>キンセツカンケイ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>シンワテキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウショウ</t>
+    </rPh>
+    <rPh sb="42" eb="47">
+      <t>テキタイテキコウショウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="105" eb="110">
+      <t>シンワテキコウショウ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="147" eb="152">
+      <t>テキタイテキコウショウ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>コタイ</t>
+    </rPh>
+    <rPh sb="186" eb="191">
+      <t>ヒコウゲキコタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・一日の中での連続的な個体間距離の変化をARIMAモデルを用いて検討
+・果実採食中に凝集性は高くなる</t>
+    <rPh sb="1" eb="19">
+      <t>イチニチノナカデノレンゾクテキナコタイカンキョリノヘンカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="36" eb="41">
+      <t>カジツサイショクチュウ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ギョウシュウセイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Female Spider Monkeys (Ateles geoffroyi) Cope with Anthropogenic Disturbance Through Fission-Fusion Dynamics</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5101,11 +5135,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C5B0CB-B451-43EC-9198-FD006B63F7E5}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J62" sqref="J62:J63"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5113,11 +5147,11 @@
     <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="5" customWidth="1"/>
     <col min="6" max="6" width="60.125" style="4" customWidth="1"/>
     <col min="7" max="8" width="18.25" style="4" customWidth="1"/>
-    <col min="9" max="9" width="25.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="37.875" style="4" customWidth="1"/>
     <col min="10" max="10" width="24.625" style="4" customWidth="1"/>
     <col min="11" max="11" width="51" style="7" customWidth="1"/>
     <col min="12" max="12" width="39.75" style="7" customWidth="1"/>
@@ -5201,7 +5235,7 @@
         <v>80</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="229.5" x14ac:dyDescent="0.4">
@@ -5315,7 +5349,7 @@
         <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="114.75" x14ac:dyDescent="0.4">
@@ -5353,7 +5387,7 @@
         <v>35</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.4">
@@ -5367,16 +5401,16 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E7" s="5">
         <v>2003</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>48</v>
@@ -5388,10 +5422,10 @@
         <v>18</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.4">
@@ -5429,7 +5463,7 @@
         <v>75</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="51" x14ac:dyDescent="0.4">
@@ -5443,7 +5477,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="E9" s="5">
         <v>2007</v>
@@ -5546,7 +5580,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="102" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="89.25" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5578,7 +5612,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>103</v>
+        <v>305</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>102</v>
@@ -5616,13 +5650,13 @@
         <v>18</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="76.5" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5654,7 +5688,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>89</v>
@@ -5692,7 +5726,7 @@
         <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.4">
@@ -5727,7 +5761,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
@@ -5762,7 +5796,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.4">
@@ -5797,7 +5831,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
@@ -5905,10 +5939,10 @@
         <v>97</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
@@ -5922,28 +5956,28 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="5">
         <v>2004</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
@@ -5957,13 +5991,13 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="5">
         <v>2011</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>22</v>
@@ -5972,19 +6006,19 @@
         <v>48</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
-    <row r="24" spans="1:12" ht="127.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -5995,31 +6029,31 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24" s="5">
         <v>2009</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
@@ -6033,28 +6067,28 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E25" s="5">
         <v>2012</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="H25" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
@@ -6068,31 +6102,31 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="5">
         <v>2016</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
@@ -6106,31 +6140,31 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" s="5">
         <v>2017</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="H27" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="51" x14ac:dyDescent="0.4">
@@ -6144,31 +6178,31 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E28" s="5">
         <v>2022</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="127.5" x14ac:dyDescent="0.4">
@@ -6182,31 +6216,31 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E29" s="5">
         <v>2014</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
@@ -6220,28 +6254,28 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" s="5">
         <v>2017</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="51" x14ac:dyDescent="0.4">
@@ -6255,31 +6289,31 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="5">
         <v>2020</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="H31" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
@@ -6293,28 +6327,28 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32" s="5">
         <v>2021</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
@@ -6328,28 +6362,28 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="5">
         <v>2018</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
@@ -6363,28 +6397,28 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E34" s="5">
         <v>2017</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>146</v>
+        <v>310</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
@@ -6398,28 +6432,28 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E35" s="5">
         <v>2012</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
@@ -6433,22 +6467,22 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E36" s="5">
         <v>2019</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>18</v>
@@ -6466,31 +6500,31 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E37" s="5">
         <v>2008</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
@@ -6504,31 +6538,31 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E38" s="5">
         <v>2003</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="51" x14ac:dyDescent="0.4">
@@ -6542,28 +6576,28 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E39" s="5">
         <v>2014</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L39" s="6"/>
     </row>
@@ -6578,31 +6612,31 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E40" s="5">
         <v>2007</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -6616,31 +6650,31 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E41" s="5">
         <v>2016</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
@@ -6654,31 +6688,31 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E42" s="5">
         <v>2008</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="153" x14ac:dyDescent="0.4">
@@ -6692,31 +6726,31 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E43" s="5">
         <v>2016</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="127.5" x14ac:dyDescent="0.4">
@@ -6730,31 +6764,31 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E44" s="5">
         <v>2009</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
@@ -6768,29 +6802,29 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E45" s="5">
         <v>2012</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
@@ -6804,25 +6838,25 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E46" s="5">
         <v>1981</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
@@ -6836,31 +6870,31 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E47" s="5">
         <v>2012</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
@@ -6874,25 +6908,25 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E48" s="5">
         <v>1995</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G48" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -6903,25 +6937,28 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E49" s="5">
         <v>2016</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K49" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="L49" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
@@ -6935,25 +6972,25 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E50" s="5">
         <v>2012</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
@@ -6967,28 +7004,28 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E51" s="5">
         <v>1990</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
@@ -7002,19 +7039,19 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E52" s="5">
         <v>1989</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>18</v>
@@ -7031,19 +7068,19 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E53" s="5">
         <v>1999</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>18</v>
@@ -7060,16 +7097,16 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E54" s="5">
         <v>2010</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>18</v>
@@ -7086,28 +7123,28 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E55" s="5">
         <v>2006</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -7118,25 +7155,28 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E56" s="5">
         <v>2013</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K56" s="6" t="s">
+        <v>293</v>
+      </c>
     </row>
-    <row r="57" spans="1:12" ht="140.25" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" ht="102" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -7147,28 +7187,28 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E57" s="5">
         <v>2012</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="H57" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
@@ -7182,19 +7222,19 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E58" s="5">
         <v>1988</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L58" s="6"/>
     </row>
@@ -7209,28 +7249,26 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E59" s="5">
         <v>2012</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>299</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="K59" s="6"/>
       <c r="L59" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
@@ -7244,19 +7282,19 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E60" s="5">
         <v>1994</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
@@ -7270,19 +7308,19 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E61" s="5">
         <v>1989</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -7293,28 +7331,28 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E62" s="5">
         <v>2015</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G62" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="K62" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>305</v>
-      </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -7325,22 +7363,25 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E63" s="5">
         <v>2021</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/FFD_bunken.xlsx
+++ b/FFD_bunken.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tsubasa Yamaguchi\Desktop\FFDronbun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3151378A-719F-4CA6-8EC8-6354DE939587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6CEF80-E07A-4C88-8999-8E93464887C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B57009A3-A253-4646-AC03-50C9AD3BF34B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B57009A3-A253-4646-AC03-50C9AD3BF34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="373">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1720,58 +1721,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Aguilar-Melo, A. R., Calmé, S., Pinacho-Guendulain, B., Smith-Aguilar, S. E., &amp; Ramos-Fernández, G. (2020). Ecological and social determinants of association and proximity patterns in the fission-fusion society of spider monkeys (Ateles geoffroyi). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>American Journal of Primatology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>82</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1), e23077.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Ecological and social determinants of association and proximity patterns in the fission-fusion society of spider monkeys (Ateles geoffroyi). </t>
   </si>
   <si>
@@ -1782,58 +1731,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hartwell, K. S., Notman, H., Kalbitzer, U., Chapman, C. A., &amp; Pavelka, M. M. S. M. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aguilar-Melo, A. R., Calmé, S., Smith-Aguilar, S. E., &amp; Ramos-Fernandez, G. (2018). Fission-fusion dynamics as a temporally and spatially flexible behavioral strategy in spider monkeys. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Behavioral Ecology and Sociobiology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>72</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(9). https://doi.org/10.1007/s00265-018-2562-y</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2166,58 +2063,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Holmes, S. M., Gordon, A. D., Louis, E. E., &amp; Johnson, S. E. (2016). Fission-fusion dynamics in black-and-white ruffed lemurs may facilitate both feeding strategies and communal care of infants in a spatially and temporally variable environment. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Behavioral Ecology and Sociobiology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>70</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(11), 1949–1960.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Fission-fusion dynamics in black-and-white ruffed lemurs may facilitate both feeding strategies and communal care of infants in a spatially and temporally variable environment.</t>
   </si>
   <si>
@@ -2239,58 +2084,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Anderson, C. M. (1981). Subtrooping in a chacma baboon (Papio ursinus) population. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Primates; Journal of Primatology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(4), 445–458.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Subtrooping in a chacma baboon (Papio ursinus) population. </t>
   </si>
   <si>
@@ -2344,58 +2137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Ménard, N., Hecham, R., Vallet, D., Chikhi, H., &amp; Gautier-Hion, A. (1990). Grouping patterns of a mountain population of Macaca sylvanus in Algeria--a fission-fusion system? </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Folia Primatologica; International Journal of Primatology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>55</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(3-4), 166–175.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Grouping patterns of a mountain population of Macaca sylvanus in Algeria--a fission-fusion system? </t>
   </si>
   <si>
@@ -2428,58 +2169,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sueur, C., Petit, O., &amp; Deneubourg, J. L. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Américo, P., Américo, A., Dias, D., &amp; Luna, E. R. (2006). Seasonal Changes in Male Associative Behavior and Subgrouping of Alouatta palliata on an Island. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>International Journal of Primatology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(6). https://doi.org/10.1007/s10764-006-9088-2</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3461,58 +3150,6 @@
   </si>
   <si>
     <t>Mangevo bushcamp in Ranomafana National Park, Madagascar (RNP)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rimbach, R., Link, A., Montes-Rojas, A., Di Fiore, A., Heistermann, M., &amp; Heymann, E. W. (2014). Behavioral and physiological responses to fruit availability of spider monkeys ranging in a small forest fragment. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>American Journal of Primatology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>76</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(11), 1049–1061.</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4682,12 +4319,1733 @@
     <t>Female Spider Monkeys (Ateles geoffroyi) Cope with Anthropogenic Disturbance Through Fission-Fusion Dynamics</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>メスがフランジオスと近接することがアンフランジオスからのハラスメントを減らすかを検証</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・メスがフランジオスとコンソートしているとき、アンフランジオスはより高い頻度で交尾を試みるが（2.1/day vs 1.5/day）、成功率が低下する（71%% vs 95%）。交尾頻度や強制交尾の割合は変化しなかった。
+・メスが抵抗した56%でフランジオスの10m以内に近づく行動が見られた。残りの44%では、フランジオスがアンフランジを追いかけた。
+・メスは交尾を伴わないパーティをフランジオスと結成することがあった。これらはすべてメスによって始められた。メスはアンフランジオスに近づかれるとフランジに近づき、アンフランジが去るとフランジから離れるなど、フランジと近づいたり離れたりを繰り返した。
+➡ メスにとって、フランジに近づくことがアンフランジからのハラスメントを防ぐ戦術として機能している。</t>
+    </r>
+    <rPh sb="10" eb="12">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="110" eb="113">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="132" eb="136">
+      <t>コウビヒンド</t>
+    </rPh>
+    <rPh sb="137" eb="141">
+      <t>キョウセイコウビ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ワリアイ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="224" eb="226">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="227" eb="228">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>ケッセイ</t>
+    </rPh>
+    <rPh sb="267" eb="268">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="285" eb="286">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="296" eb="297">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="307" eb="308">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="316" eb="317">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="327" eb="328">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="332" eb="333">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="337" eb="338">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="339" eb="340">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="358" eb="359">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="380" eb="381">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="382" eb="384">
+      <t>センジュツ</t>
+    </rPh>
+    <rPh sb="387" eb="389">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1994年～2016年のデータを用いて、アカンボウ餅のメスが子殺し回避戦略に沿った行動をとるか検討
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・6歳以下の子供を持つメスは、それ以外のメスよりもオスと遭遇する頻度が低く、一緒にいる時間も短い。
+・母子間の距離はオスがいるときに縮まるが、他のメスがいる時には縮まらない。
+・同様のチンパンジーの研究として、Otalia &amp; Gilchristも参照
+➡ メスは子殺しのリスクが高いときに子供との距離を縮めている</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コゴロ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>サイイカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ソウグウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="101" eb="104">
+      <t>ボシカン</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>チヂ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>チヂ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>コゴロ</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>チヂ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・他個体の前で出産したメスのアカンボウがすぐに食べられた事例を観察。
+・長期データから、アカンボウを産んだメスはしばらく観察できなくなる（= maternity leave）ことが分かった
+➡ 子殺し防止の機能があるのではないか</t>
+    <rPh sb="1" eb="4">
+      <t>タコタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュッサン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジレイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンサツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チョウキ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カンサツ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>コゴロ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2019年の研究を受け、母親とアカンボウのどちらが近接を維持しているのかを詳しく検討。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・同じ日の母子間の距離は、オスが近接しているときには誰もいないときに比べて短くなった。一方で、他のメスの近接は母子間距離に影響しない。
+・同じ日の母子間のHinde Index を調べると、オスが近くにいるときに単独の場合に比べて母親がより母子間の近接の責任を負うようになっていた。一方で、他のメスが近くにいるときは変わらず。ただし、いずれの場合もHinde Index はマイナスであり、母親よりもアカンボウの方が近接・退避の責任を負っていた。
+➡ 総合すると、オスが近接しているときに母親が近接を調整することで母子間の距離が縮まっていたと考えられる。</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハハオヤ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ボシカン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="99" eb="104">
+      <t>ボシカンキョリ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ボシカン</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>タンドク</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ハハオヤ</t>
+    </rPh>
+    <rPh sb="164" eb="167">
+      <t>ボシカン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>ハハオヤ</t>
+    </rPh>
+    <rPh sb="250" eb="251">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="255" eb="257">
+      <t>タイヒ</t>
+    </rPh>
+    <rPh sb="258" eb="260">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="261" eb="262">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="270" eb="272">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="279" eb="281">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="288" eb="290">
+      <t>ハハオヤ</t>
+    </rPh>
+    <rPh sb="291" eb="293">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="294" eb="296">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="301" eb="304">
+      <t>ボシカン</t>
+    </rPh>
+    <rPh sb="308" eb="309">
+      <t>チヂ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Journal_Article</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fox, E. B. A.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Female tactics to reduce sexual harassment in the Sumatran orangutan (Pongo pygmaeus abelii). </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Behavioral Ecology and Sociobiology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Suaq（Smatra）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Orangutan, sexual coercion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scott, A. M., Knott, C. D., &amp; Susanto, T. W.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Are Male Orangutans a Threat to Infants? Evidence of Mother–Offspring Counterstrategies to Infanticide in Bornean Orangutans (Pongo pygmaeus wurmbii).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Journal of Primatology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gunung Palung（Borneo）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Orangutan, sexual coercion, infanticide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishie, H., &amp; Nakamura, M. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A newborn infant chimpanzee snatched and cannibalized immediately after birth: Implications for “maternity leave” in wild chimpanzee. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chimpanzee, infanticide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott, A. M., Susanto, T. W., Setia, T. M., &amp; Knott, C. D. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother-offspring proximity maintenance as an infanticide avoidance strategy in bornean orangutans (Pongo pygmaeus wurmbii). </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orangutans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chimpanzee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aguilar-Melo, A. R., Calmé, S., Pinacho-Guendulain, B., Smith-Aguilar, S. E., &amp; Ramos-Fernández, G. (2020). Ecological and social determinants of association and proximity patterns in the fission-fusion society of spider monkeys (Ateles geoffroyi). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>American Journal of Primatology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1), e23077.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aguilar-Melo, A. R., Calmé, S., Smith-Aguilar, S. E., &amp; Ramos-Fernandez, G. (2018). Fission-fusion dynamics as a temporally and spatially flexible behavioral strategy in spider monkeys. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Behavioral Ecology and Sociobiology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(9). https://doi.org/10.1007/s00265-018-2562-y</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rimbach, R., Link, A., Montes-Rojas, A., Di Fiore, A., Heistermann, M., &amp; Heymann, E. W. (2014). Behavioral and physiological responses to fruit availability of spider monkeys ranging in a small forest fragment. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>American Journal of Primatology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(11), 1049–1061.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Holmes, S. M., Gordon, A. D., Louis, E. E., &amp; Johnson, S. E. (2016). Fission-fusion dynamics in black-and-white ruffed lemurs may facilitate both feeding strategies and communal care of infants in a spatially and temporally variable environment. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Behavioral Ecology and Sociobiology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(11), 1949–1960.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anderson, C. M. (1981). Subtrooping in a chacma baboon (Papio ursinus) population. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Primates; Journal of Primatology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4), 445–458.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ménard, N., Hecham, R., Vallet, D., Chikhi, H., &amp; Gautier-Hion, A. (1990). Grouping patterns of a mountain population of Macaca sylvanus in Algeria--a fission-fusion system? </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Folia Primatologica; International Journal of Primatology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3-4), 166–175.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Américo, P., Américo, A., Dias, D., &amp; Luna, E. R. (2006). Seasonal Changes in Male Associative Behavior and Subgrouping of Alouatta palliata on an Island. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>International Journal of Primatology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(6). https://doi.org/10.1007/s10764-006-9088-2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田島知之</t>
+    <rPh sb="0" eb="4">
+      <t>タジマトモユキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群れない類人猿</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ルイジンエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生態人類学は挑む5 関わる・認める</t>
+    <rPh sb="0" eb="5">
+      <t>セイタイジンルイガク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・オランウータンの社会性について、離合集散などに着目しながら考察
+・生息環境の資源量のベースラインが低いためオランウータンでは離乳前の子供と母親以外が2個体以上で一緒にいることは少ない。
+・一方で、一斉結実期など資源量が増えれば集合性は高まる。
+・環境的な要因によって集まらないだけであって、飼育下では仲直りやケンカへの仲裁などの社会行動が見られる。これは、オランウータンが多個体が共存する行動メカニズムを持っていることを示唆する。</t>
+    <rPh sb="9" eb="12">
+      <t>シャカイセイ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>リゴウシュウサン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チャクモク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウサツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>シゲンリョウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>リニュウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ハハオヤ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>コタイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>イッポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩田有史</t>
+    <rPh sb="0" eb="2">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体の努力と個の努力</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・同所的に生息するにもかかわらず、ゴリラはチンパンジーとは対照的にまとまりの良い群れを作る。
+・ゴリラは環境の変化に対して食物を変化させることで生息密度や群れサイズを恒常的に維持していると考えられる。
+・群れのまとまりを維持するために、遊動や採食を柔軟に変化させている。
+ - 果実が多くなると遊動距離を伸ばす一方で、果実が集中する場所を繰り返し利用するようになる。➡　郡内スクランブルの軽減。
+ - 体サイズに応じて食物の食べる部位を変える。➡　郡内スクランブルの軽減。
+ - 年商個体から年長個体への食物分配 ➡ 郡内コンテストの軽減</t>
+    <rPh sb="1" eb="3">
+      <t>ドウショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>タイショウテキ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ショクモツ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="72" eb="76">
+      <t>セイソクミツド</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t>コウジョウテキ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ユウドウ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>サイショク</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ジュウナン</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>カジツ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="147" eb="151">
+      <t>ユウドウキョリ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>カジツ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>グンナイ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>ケイゲン</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>ショクモツ</t>
+    </rPh>
+    <rPh sb="212" eb="213">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="240" eb="244">
+      <t>ネンショウコタイ</t>
+    </rPh>
+    <rPh sb="246" eb="250">
+      <t>ネンチョウコタイ</t>
+    </rPh>
+    <rPh sb="252" eb="256">
+      <t>ショクモツブンパイ</t>
+    </rPh>
+    <rPh sb="259" eb="261">
+      <t>グンナイ</t>
+    </rPh>
+    <rPh sb="267" eb="269">
+      <t>ケイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Book_Section</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orangutan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orangutan, fission-fusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gorilla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座馬耕一郎</t>
+    <rPh sb="0" eb="2">
+      <t>ザンマ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウイチロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>離合集散が織りなす集団の動態</t>
+    <rPh sb="0" eb="4">
+      <t>リゴウシュウサン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウダン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chimpanzee, fission-fusion dynamics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ヒトの社会は離合集散する重層社会だが、集団の定員の定常性（e.g., 家族、職場）や出現の周期性（e.g., 早朝と夜は家族といることが多い）が見られる「概日性多層集団社会」である。
+・みなが1日のうちの「ある時間」に「ある場所」において行う「何かはっきりとしたこと」があれば離合集散社会から概日性多層集団社会が生じうる。「何か」の候補としては、ベッドに適した樹種がある限られた場所に、夜にベッドを作るために集まることなどが考えられる。</t>
+    <rPh sb="4" eb="6">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>リゴウシュウサン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウダン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイイン</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>テイジョウセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショクバ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>シュウキセイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="78" eb="87">
+      <t>ガイジツセイタソウシュウダンシャカイ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="139" eb="145">
+      <t>リゴウシュウサンシャカイ</t>
+    </rPh>
+    <rPh sb="147" eb="150">
+      <t>ガイジツセイ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>タソウ</t>
+    </rPh>
+    <rPh sb="152" eb="156">
+      <t>シュウダンシャカイ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>ジュシュ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="213" eb="214">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Book=Section</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村美知夫</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「動く」ことで形作られるチンパンジー社会</t>
+    <rPh sb="1" eb="2">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カタチヅク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シャカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生態人類学は挑む1 動く・集まる</t>
+    <rPh sb="0" eb="5">
+      <t>セイタイジンルイガク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chimpanzee, fission-fusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・チンパンジーの社会についての包括的レビュー
+・離合集散を繰り返しながら生活しているという点でチンパンジーと人は共通している。
+・異なるのは、寝泊まりする構造物の持続性（チンパンジーのベッドは毎日変わる）や、集団レベルの大規模な移住であるかもしれない。</t>
+    <rPh sb="8" eb="10">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ホウカツテキ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>リゴウシュウサン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ネト</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>コウゾウブツ</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>ジゾクセイ</t>
+    </rPh>
+    <rPh sb="96" eb="99">
+      <t>マイニチカ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>シュウダン</t>
+    </rPh>
+    <rPh sb="110" eb="113">
+      <t>ダイキボ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>イジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Book=Section</t>
+  </si>
+  <si>
+    <t>高畑由起夫</t>
+    <rPh sb="0" eb="2">
+      <t>タカハタ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ユキオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生まれる, 動く, 集まる, 去る, そして死ぬ</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chimpanzee, Japanese macaques, ring-tailed lemur</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chimpanzee, fission-fusion</t>
+  </si>
+  <si>
+    <t>・ワオキツネザル、嵐山と屋久島のニホンザル、チンパンジーのマイクロデモグラフィーについてまとめながら、霊長類の社会について考察した論考。</t>
+    <rPh sb="9" eb="11">
+      <t>アラシヤマ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヤクシマ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>レイチョウルイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウサツ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ロンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹ノ下裕二</t>
+    <rPh sb="0" eb="1">
+      <t>タケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>霊長類の社会変動に見るレジリエンス</t>
+    <rPh sb="0" eb="3">
+      <t>レイチョウルイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シャカイヘンドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生態人類学は挑む6 たえる・きざす</t>
+    <rPh sb="0" eb="5">
+      <t>セイタイジンルイガク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japanese macaque, gorilla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arashiyama, Higashiyama zoo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・大きな社会変動があったときの霊長類の行動の「創造性」を事例をもとに考察。
+・嵐山E群では、1992年にオスの順位逆転が生じ（αオスが3位に転落）、その直後にαオスが死亡。第一位オスDeはメスから「頼られる」メスであり、群れの社会的ネットワークのハブとして機能していたため、群れの社会関係に大きな変化をもたらした。
+・Deの消失後、αメスMiは血縁との毛づくろい時間を減らし、多くの非血縁との浅く広く毛づくろいを行うようになった。
+➡ Deの不在を埋めるため、Miが群れのハブのような役割を担うようになった？それによって群れの分裂や崩壊が防がれた可能性。
+➡ ニホンザルでは、このように群れのまとまりを維持するための様々なオプションをメスが持っており、状況に応じてそれが発現されるのであろう。</t>
+    <rPh sb="1" eb="2">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シャカイヘンドウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>レイチョウルイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ソウゾウセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジレイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウサツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>アラシヤマ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="55" eb="59">
+      <t>ジュンイギャクテン</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>テンラク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="79" eb="85">
+      <t>アルファオスガシボウ</t>
+    </rPh>
+    <rPh sb="86" eb="89">
+      <t>ダイイチイ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>タヨ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="113" eb="116">
+      <t>シャカイテキ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="140" eb="144">
+      <t>シャカイカンケイ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="162" eb="165">
+      <t>ショウシツゴ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ケツエン</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="191" eb="194">
+      <t>ヒケツエン</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>フザイ</t>
+    </rPh>
+    <rPh sb="233" eb="234">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="245" eb="246">
+      <t>ニナ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="263" eb="265">
+      <t>ブンレツ</t>
+    </rPh>
+    <rPh sb="266" eb="268">
+      <t>ホウカイ</t>
+    </rPh>
+    <rPh sb="269" eb="270">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="273" eb="276">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="293" eb="294">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="301" eb="303">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="308" eb="321">
+      <t>サマザマナオプションヲメスガモ</t>
+    </rPh>
+    <rPh sb="326" eb="328">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="329" eb="330">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="335" eb="337">
+      <t>ハツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutsukake, N., &amp; Hasegawa, T. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominance turnover between an alpha and a beta male and dynamics of social relationships in Japanese macaques. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japanese macaques</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jigokudani</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japanese macaque, rank reversal, coalition, male</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. αメスである母親（TG）の援助もあり、βオス（R7）とαオス（GN）の順位が逆転した。
+2. 順位を安定させるためか、R7は逆転後にGNに頻繁に攻撃を行った。
+3. 一方で、GNとR7は連合を形成して劣位のオスへと攻撃を行った。
+4. 順位逆転後は、劣位個体の優位個体に対する挑戦が増加した。
+5. 順位逆転後の3個体以上が関与する攻撃は直接的なものに発展することはなく、コストは低く抑えっれていたと思われる。
+6. αメスが順位逆転の契機となった交渉を含むオス間の攻撃的交渉にたびたび関与しており、αメスがオスの順位変動に影響を与えうることを示している。
+7. GNと親密なメスの旧αオス（GN)に対する近接は順位逆転後に一時的に減少した。一方で、発情を開始したメスと新αオス（R7)の近接は増加した。これは、順位逆転後にR7がGNと親密な関係を持つメスを攻撃し始めたからだと思われる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4751,19 +6109,58 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4791,7 +6188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4816,7 +6213,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4837,9 +6267,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4877,7 +6307,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4983,7 +6413,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5125,7 +6555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5133,13 +6563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C5B0CB-B451-43EC-9198-FD006B63F7E5}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5200,7 +6630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="204" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="178.5" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5238,7 +6668,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="229.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="191.25" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5400,17 +6830,17 @@
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>242</v>
+      <c r="D7" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="E7" s="5">
         <v>2003</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>48</v>
@@ -5422,10 +6852,10 @@
         <v>18</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.4">
@@ -5438,7 +6868,7 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="5">
@@ -5463,7 +6893,7 @@
         <v>75</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="51" x14ac:dyDescent="0.4">
@@ -5476,8 +6906,8 @@
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>304</v>
+      <c r="D9" s="12" t="s">
+        <v>297</v>
       </c>
       <c r="E9" s="5">
         <v>2007</v>
@@ -5542,7 +6972,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="63.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="51" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5612,7 +7042,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>102</v>
@@ -5739,7 +7169,7 @@
       <c r="C16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="15" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="5">
@@ -5879,7 +7309,7 @@
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="12" t="s">
         <v>93</v>
       </c>
       <c r="E20" s="5">
@@ -5917,7 +7347,7 @@
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="12" t="s">
         <v>96</v>
       </c>
       <c r="E21" s="5">
@@ -5955,7 +7385,7 @@
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E22" s="5">
@@ -5990,7 +7420,7 @@
       <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="5">
@@ -6028,7 +7458,7 @@
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="12" t="s">
         <v>126</v>
       </c>
       <c r="E24" s="5">
@@ -6044,16 +7474,16 @@
         <v>124</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
@@ -6066,7 +7496,7 @@
       <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="12" t="s">
         <v>129</v>
       </c>
       <c r="E25" s="5">
@@ -6082,13 +7512,13 @@
         <v>124</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
@@ -6101,7 +7531,7 @@
       <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E26" s="5">
@@ -6117,16 +7547,16 @@
         <v>124</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
@@ -6139,7 +7569,7 @@
       <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="12" t="s">
         <v>134</v>
       </c>
       <c r="E27" s="5">
@@ -6155,16 +7585,16 @@
         <v>124</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="51" x14ac:dyDescent="0.4">
@@ -6177,32 +7607,32 @@
       <c r="C28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
-        <v>225</v>
+      <c r="D28" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="E28" s="5">
         <v>2022</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="127.5" x14ac:dyDescent="0.4">
@@ -6215,7 +7645,7 @@
       <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="12" t="s">
         <v>136</v>
       </c>
       <c r="E29" s="5">
@@ -6231,16 +7661,16 @@
         <v>124</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
@@ -6253,7 +7683,7 @@
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="12" t="s">
         <v>138</v>
       </c>
       <c r="E30" s="5">
@@ -6269,13 +7699,13 @@
         <v>124</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="51" x14ac:dyDescent="0.4">
@@ -6288,32 +7718,32 @@
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D31" t="s">
-        <v>139</v>
+      <c r="D31" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="E31" s="5">
         <v>2020</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
@@ -6326,14 +7756,14 @@
       <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D32" t="s">
-        <v>143</v>
+      <c r="D32" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="E32" s="5">
         <v>2021</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>40</v>
@@ -6342,13 +7772,13 @@
         <v>124</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
@@ -6361,14 +7791,14 @@
       <c r="C33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D33" t="s">
-        <v>144</v>
+      <c r="D33" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="E33" s="5">
         <v>2018</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>16</v>
@@ -6377,13 +7807,13 @@
         <v>124</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
@@ -6396,14 +7826,14 @@
       <c r="C34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D34" t="s">
-        <v>145</v>
+      <c r="D34" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="E34" s="5">
         <v>2017</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>23</v>
@@ -6412,13 +7842,13 @@
         <v>124</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
@@ -6431,14 +7861,14 @@
       <c r="C35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D35" t="s">
-        <v>147</v>
+      <c r="D35" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E35" s="5">
         <v>2012</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>22</v>
@@ -6447,13 +7877,13 @@
         <v>124</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
@@ -6466,23 +7896,23 @@
       <c r="C36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D36" t="s">
-        <v>229</v>
+      <c r="D36" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="E36" s="5">
         <v>2019</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>18</v>
@@ -6499,32 +7929,32 @@
       <c r="C37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D37" t="s">
-        <v>254</v>
+      <c r="D37" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="E37" s="5">
         <v>2008</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="63.75" x14ac:dyDescent="0.4">
@@ -6537,14 +7967,14 @@
       <c r="C38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D38" t="s">
-        <v>261</v>
+      <c r="D38" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="E38" s="5">
         <v>2003</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>115</v>
@@ -6553,16 +7983,16 @@
         <v>124</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="51" x14ac:dyDescent="0.4">
@@ -6575,29 +8005,29 @@
       <c r="C39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D39" t="s">
-        <v>271</v>
+      <c r="D39" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="E39" s="5">
         <v>2014</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L39" s="6"/>
     </row>
@@ -6611,32 +8041,32 @@
       <c r="C40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D40" t="s">
-        <v>166</v>
+      <c r="D40" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="E40" s="5">
         <v>2007</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -6649,32 +8079,32 @@
       <c r="C41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D41" t="s">
-        <v>167</v>
+      <c r="D41" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="E41" s="5">
         <v>2016</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
@@ -6687,32 +8117,32 @@
       <c r="C42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D42" t="s">
-        <v>170</v>
+      <c r="D42" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="E42" s="5">
         <v>2008</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="153" x14ac:dyDescent="0.4">
@@ -6725,32 +8155,32 @@
       <c r="C43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D43" t="s">
-        <v>171</v>
+      <c r="D43" s="12" t="s">
+        <v>329</v>
       </c>
       <c r="E43" s="5">
         <v>2016</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="127.5" x14ac:dyDescent="0.4">
@@ -6763,32 +8193,32 @@
       <c r="C44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D44" t="s">
-        <v>175</v>
+      <c r="D44" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="E44" s="5">
         <v>2009</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="38.25" x14ac:dyDescent="0.4">
@@ -6801,30 +8231,30 @@
       <c r="C45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D45" t="s">
-        <v>177</v>
+      <c r="D45" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="E45" s="5">
         <v>2012</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
@@ -6837,26 +8267,26 @@
       <c r="C46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D46" t="s">
-        <v>178</v>
+      <c r="D46" s="12" t="s">
+        <v>330</v>
       </c>
       <c r="E46" s="5">
         <v>1981</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="76.5" x14ac:dyDescent="0.4">
@@ -6869,32 +8299,32 @@
       <c r="C47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D47" t="s">
-        <v>182</v>
+      <c r="D47" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E47" s="5">
         <v>2012</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
@@ -6907,20 +8337,20 @@
       <c r="C48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D48" t="s">
-        <v>185</v>
+      <c r="D48" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="E48" s="5">
         <v>1995</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>18</v>
@@ -6936,29 +8366,29 @@
       <c r="C49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D49" t="s">
-        <v>188</v>
+      <c r="D49" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="E49" s="5">
         <v>2016</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
@@ -6971,26 +8401,26 @@
       <c r="C50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D50" t="s">
-        <v>192</v>
+      <c r="D50" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="E50" s="5">
         <v>2012</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
@@ -7003,29 +8433,29 @@
       <c r="C51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D51" t="s">
-        <v>193</v>
+      <c r="D51" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="E51" s="5">
         <v>1990</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
@@ -7038,20 +8468,20 @@
       <c r="C52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D52" t="s">
-        <v>215</v>
+      <c r="D52" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="E52" s="5">
         <v>1989</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>18</v>
@@ -7067,20 +8497,20 @@
       <c r="C53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D53" t="s">
-        <v>200</v>
+      <c r="D53" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="E53" s="5">
         <v>1999</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>18</v>
@@ -7096,17 +8526,17 @@
       <c r="C54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D54" t="s">
-        <v>203</v>
+      <c r="D54" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="E54" s="5">
         <v>2010</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>18</v>
@@ -7122,26 +8552,26 @@
       <c r="C55" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D55" t="s">
-        <v>204</v>
+      <c r="D55" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="E55" s="5">
         <v>2006</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7154,26 +8584,26 @@
       <c r="C56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D56" t="s">
-        <v>220</v>
+      <c r="D56" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="E56" s="5">
         <v>2013</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="102" x14ac:dyDescent="0.4">
@@ -7186,29 +8616,29 @@
       <c r="C57" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D57" t="s">
-        <v>231</v>
+      <c r="D57" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="E57" s="5">
         <v>2012</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="K57" s="6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
@@ -7221,20 +8651,20 @@
       <c r="C58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D58" t="s">
-        <v>249</v>
+      <c r="D58" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="E58" s="5">
         <v>1988</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L58" s="6"/>
     </row>
@@ -7248,27 +8678,27 @@
       <c r="C59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D59" t="s">
-        <v>266</v>
+      <c r="D59" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="E59" s="5">
         <v>2012</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
@@ -7281,20 +8711,20 @@
       <c r="C60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D60" t="s">
-        <v>281</v>
+      <c r="D60" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="E60" s="5">
         <v>1994</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
@@ -7307,17 +8737,17 @@
       <c r="C61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D61" t="s">
-        <v>290</v>
+      <c r="D61" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="E61" s="5">
         <v>1989</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
@@ -7330,26 +8760,26 @@
       <c r="C62" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D62" t="s">
-        <v>295</v>
+      <c r="D62" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="E62" s="5">
         <v>2015</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
@@ -7362,27 +8792,413 @@
       <c r="C63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D63" t="s">
-        <v>300</v>
+      <c r="D63" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="E63" s="5">
         <v>2021</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>115</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K63" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" customFormat="1" ht="165.75" x14ac:dyDescent="0.4">
+      <c r="A64" s="12">
+        <v>73</v>
+      </c>
+      <c r="B64" s="12">
+        <v>1</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" s="12" t="s">
         <v>309</v>
       </c>
+      <c r="E64" s="16">
+        <v>2002</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" customFormat="1" ht="114.75" x14ac:dyDescent="0.4">
+      <c r="A65" s="12">
+        <v>75</v>
+      </c>
+      <c r="B65" s="12">
+        <v>1</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E65" s="16">
+        <v>2019</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" customFormat="1" ht="51" x14ac:dyDescent="0.4">
+      <c r="A66" s="12">
+        <v>76</v>
+      </c>
+      <c r="B66" s="12">
+        <v>2</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E66" s="16">
+        <v>2018</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" customFormat="1" ht="127.5" x14ac:dyDescent="0.4">
+      <c r="A67" s="12">
+        <v>77</v>
+      </c>
+      <c r="B67" s="12">
+        <v>1</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E67" s="16">
+        <v>2023</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="89.25" x14ac:dyDescent="0.4">
+      <c r="A68" s="8">
+        <v>75</v>
+      </c>
+      <c r="B68" s="8">
+        <v>1</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68" s="9">
+        <v>2002</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="114.75" x14ac:dyDescent="0.4">
+      <c r="A69" s="13">
+        <v>76</v>
+      </c>
+      <c r="B69" s="13">
+        <v>1</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E69" s="18">
+        <v>2022</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" customFormat="1" ht="89.25" x14ac:dyDescent="0.4">
+      <c r="A70" s="8">
+        <v>78</v>
+      </c>
+      <c r="B70" s="8">
+        <v>1</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E70" s="9">
+        <v>2022</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="L70" s="19"/>
+    </row>
+    <row r="71" spans="1:12" customFormat="1" ht="63.75" x14ac:dyDescent="0.4">
+      <c r="A71" s="8">
+        <v>79</v>
+      </c>
+      <c r="B71" s="8">
+        <v>1</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71" s="9">
+        <v>2020</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="L71" s="19"/>
+    </row>
+    <row r="72" spans="1:12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="8">
+        <v>80</v>
+      </c>
+      <c r="B72" s="8">
+        <v>1</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E72" s="9">
+        <v>2020</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="L72" s="19"/>
+    </row>
+    <row r="73" spans="1:12" customFormat="1" ht="153" x14ac:dyDescent="0.4">
+      <c r="A73" s="8">
+        <v>81</v>
+      </c>
+      <c r="B73" s="8">
+        <v>1</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E73" s="9">
+        <v>20222</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="L73" s="19"/>
+    </row>
+    <row r="74" spans="1:12" customFormat="1" ht="153" x14ac:dyDescent="0.4">
+      <c r="A74" s="8">
+        <v>82</v>
+      </c>
+      <c r="B74" s="8">
+        <v>1</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E74" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="L74" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
